--- a/Running projects/Citi Bank Dolmen Sky Tower/VO/Summary of VOs.xlsx
+++ b/Running projects/Citi Bank Dolmen Sky Tower/VO/Summary of VOs.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{543679CE-469B-4BC1-9B92-9884D42EBE1F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40D6D172-00A7-46B4-B9A9-292E20152F9D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13,7 +13,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$C$24</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1"/>
 </workbook>
 </file>
 
@@ -66,7 +66,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
@@ -227,7 +228,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -295,6 +296,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -634,10 +640,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A7:D25"/>
+  <dimension ref="A7:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -645,37 +651,38 @@
     <col min="1" max="1" width="6" style="1" customWidth="1"/>
     <col min="2" max="2" width="67" style="1" customWidth="1"/>
     <col min="3" max="3" width="18.28515625" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="30.5703125" style="1"/>
+    <col min="4" max="4" width="20.85546875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="30.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C7" s="21" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A8" s="22"/>
       <c r="B8" s="22"/>
       <c r="C8" s="22"/>
     </row>
-    <row r="10" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A10" s="23" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="23"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
     </row>
-    <row r="13" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
     </row>
-    <row r="14" spans="1:3" s="4" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" s="4" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>0</v>
       </c>
@@ -686,12 +693,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
       <c r="B15" s="6"/>
       <c r="C15" s="10"/>
     </row>
-    <row r="16" spans="1:3" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>2</v>
       </c>
@@ -701,8 +708,11 @@
       <c r="C16" s="16">
         <v>1034383.36</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D16" s="25">
+        <v>888923.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>2</v>
       </c>
@@ -712,8 +722,11 @@
       <c r="C17" s="16">
         <v>50944</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D17" s="17">
+        <v>43780</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>2</v>
       </c>
@@ -723,8 +736,11 @@
       <c r="C18" s="16">
         <v>361164.80000000005</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D18" s="17">
+        <v>310376</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>2</v>
       </c>
@@ -734,13 +750,24 @@
       <c r="C19" s="16">
         <v>175000</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D19" s="17">
+        <v>175000</v>
+      </c>
+      <c r="E19" s="17">
+        <f>D19*1.1</f>
+        <v>192500.00000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8"/>
       <c r="B20" s="7"/>
       <c r="C20" s="10"/>
-    </row>
-    <row r="21" spans="1:4" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E20" s="1">
+        <f>E19-D19</f>
+        <v>17500.000000000029</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="18"/>
       <c r="B21" s="19" t="s">
         <v>1</v>
@@ -749,13 +776,33 @@
         <f>SUM(C16:C20)</f>
         <v>1621492.16</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D21" s="26">
+        <f>SUM(D16:D20)</f>
+        <v>1418079.2</v>
+      </c>
+      <c r="E21" s="26">
+        <f>D21+E20</f>
+        <v>1435579.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D22" s="27">
+        <f>D21*4.5%</f>
+        <v>63813.563999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D23" s="27">
+        <f>D22+D21</f>
+        <v>1481892.764</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="24"/>
       <c r="B24" s="24"/>
       <c r="C24" s="24"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D25" s="9"/>
     </row>
   </sheetData>
